--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45463</v>
+        <v>44600</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44897</v>
+        <v>45463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44600</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45463</v>
+        <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44600</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45463</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44897</v>
+        <v>45463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45463</v>
+        <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45463</v>
+        <v>44600</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44897</v>
+        <v>45463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44600</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45463</v>
+        <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44600</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44600</v>
+        <v>45463</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45463</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44897</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45463</v>
+        <v>44600</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>45463</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44897</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -918,14 +918,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 57810-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>45463</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44600</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45463</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57810-2022</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44897</v>
+        <v>44600</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -975,14 +975,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 25610-2024</t>
+          <t>A 33037-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45463</v>
+        <v>45840.39623842593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1032,14 +1032,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 33037-2025</t>
+          <t>A 33033-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45840.39623842593</v>
+        <v>45840.39188657407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1089,14 +1089,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33033-2025</t>
+          <t>A 6314-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45840.39188657407</v>
+        <v>44600</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1146,14 +1146,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 6314-2022</t>
+          <t>A 25610-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44600</v>
+        <v>45463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>

--- a/Översikt TRELLEBORG.xlsx
+++ b/Översikt TRELLEBORG.xlsx
@@ -575,7 +575,7 @@
         <v>44258</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44897</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>44516</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>44516</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         <v>44516</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>44897</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         <v>45840.39623842593</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         <v>45840.39188657407</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         <v>44600</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         <v>45463</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
